--- a/logements.xlsx
+++ b/logements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/881e8661e147bb1f/Bureau/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DCFB045-CD8A-41FB-9745-982809B4226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{0DCFB045-CD8A-41FB-9745-982809B4226E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2EDEFB6-6FB7-4089-A546-94C80022EEF4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F1C25406-5104-486C-9D11-BDFD849D56BE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>Adresse complète</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>2026:1100;2025:1080;2024:1060;2023:1040</t>
+  </si>
+  <si>
+    <t>725 Rue Jolliet, Saguenay, QC, G7J 2P7</t>
   </si>
 </sst>
 </file>
@@ -596,13 +599,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F873E0C-8E86-4050-BB3C-16CC2801EF83}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="55.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -923,6 +929,35 @@
         <v>36</v>
       </c>
     </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
